--- a/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0.34</v>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_13_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_20_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>

--- a/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1356,34 +1356,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="O13" t="n">
-        <v>87.7</v>
+        <v>87.69</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.26</v>
+        <v>0.55</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_20_13', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 1, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1395,7 +1395,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1403,14 +1407,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1430,29 +1434,29 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O14" t="n">
-        <v>87.69</v>
+        <v>87.63</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_27_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1476,14 +1480,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1498,34 +1502,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="O15" t="n">
-        <v>87.63</v>
+        <v>87.62</v>
       </c>
       <c r="P15" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.53</v>
+        <v>0.12</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_27_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_44_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1556,7 +1560,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1572,33 +1576,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="O16" t="n">
-        <v>87.62</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="P16" t="n">
         <v>0.01</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.12</v>
+        <v>0.67</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_44_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_28_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1629,7 +1633,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1651,27 +1655,27 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="O17" t="n">
-        <v>87.59999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.67</v>
+        <v>0.48</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_28_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_46_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1702,7 +1706,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1724,27 +1728,27 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="O18" t="n">
-        <v>87.3</v>
+        <v>87.27</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.48</v>
+        <v>0.25</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_46_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_07_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1756,11 +1760,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1775,7 +1775,7 @@
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1797,23 +1797,161 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="O19" t="n">
-        <v>87.27</v>
+        <v>87.17</v>
       </c>
       <c r="P19" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.25</v>
+        <v>0.37</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_07_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_45_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O20" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_05_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O21" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_26_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,6 +1953,75 @@
       </c>
       <c r="S21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O22" t="n">
+        <v>86.45</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_35_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>8192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l03>AllRes_88.43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,11 +583,11 @@
         <v>0.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-09_15_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_33_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S2" t="n">
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,11 +681,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>acm</t>
@@ -693,14 +689,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -715,34 +711,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="O4" t="n">
-        <v>88.23</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3</v>
+        <v>0.77</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_35_33', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -773,7 +769,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -793,29 +789,29 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="O5" t="n">
-        <v>88.18000000000001</v>
+        <v>88.23</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_30_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_08_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -839,14 +835,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -861,34 +857,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="O6" t="n">
-        <v>88.12</v>
+        <v>88.18000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_03_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_30_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -900,7 +896,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>acm</t>
@@ -915,7 +915,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -930,34 +930,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="O7" t="n">
-        <v>88</v>
+        <v>88.12</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_33_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_03_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -977,14 +977,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1004,20 +1004,20 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="O8" t="n">
-        <v>87.95999999999999</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-19_53_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_59_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1026,7 +1026,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1038,11 +1038,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1057,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1080,17 +1076,17 @@
         <v>0.33</v>
       </c>
       <c r="O9" t="n">
-        <v>87.95999999999999</v>
+        <v>88</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.47</v>
+        <v>0.6</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_48_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1099,7 +1095,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1123,14 +1119,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1145,34 +1141,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="O10" t="n">
-        <v>87.81999999999999</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_23_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_48_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1184,11 +1180,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1203,7 +1195,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1226,17 +1218,17 @@
         <v>0.32</v>
       </c>
       <c r="O11" t="n">
-        <v>87.79000000000001</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_10_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_16_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1245,7 +1237,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1272,7 +1264,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1288,33 +1280,33 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="O12" t="n">
-        <v>87.7</v>
+        <v>87.88</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.26</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_07_14', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_13_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1356,80 +1348,78 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>87.69</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-20_11_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_57_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MVSE</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MPRW</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>acm</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NCEK</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>128</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>2</v>
       </c>
@@ -1437,26 +1427,24 @@
         <v>0.34</v>
       </c>
       <c r="O14" t="n">
-        <v>87.63</v>
+        <v>87.84</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_27_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_18_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1487,7 +1475,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1509,27 +1497,27 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O15" t="n">
-        <v>87.62</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="P15" t="n">
         <v>0.01</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_44_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_23_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1553,14 +1541,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1575,34 +1563,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="O16" t="n">
-        <v>87.59999999999999</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.67</v>
+        <v>0.41</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_28_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-14_10_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1614,11 +1602,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1626,14 +1610,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1648,9 +1632,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
@@ -1658,24 +1640,26 @@
         <v>0.32</v>
       </c>
       <c r="O17" t="n">
-        <v>87.3</v>
+        <v>87.69</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_46_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-23_37_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1687,11 +1671,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1706,7 +1686,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1722,7 +1702,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
@@ -1731,24 +1711,24 @@
         <v>0.31</v>
       </c>
       <c r="O18" t="n">
-        <v>87.27</v>
+        <v>87.66</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.25</v>
+        <v>0.82</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_07_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_10_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1760,7 +1740,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1768,14 +1752,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1790,9 +1774,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>3</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>2</v>
       </c>
@@ -1800,24 +1782,26 @@
         <v>0.34</v>
       </c>
       <c r="O19" t="n">
-        <v>87.17</v>
+        <v>87.63</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_45_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_27_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1829,7 +1813,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1844,7 +1832,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1860,7 +1848,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
@@ -1869,24 +1857,24 @@
         <v>0.32</v>
       </c>
       <c r="O20" t="n">
-        <v>86.84</v>
+        <v>87.62</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.12</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-13_05_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-13_44_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1898,7 +1886,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1913,7 +1905,7 @@
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1929,33 +1921,33 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="O21" t="n">
-        <v>86.69</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="P21" t="n">
         <v>0.01</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.26</v>
+        <v>0.67</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-12_26_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_28_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1967,7 +1959,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1975,52 +1971,263 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>128</v>
       </c>
       <c r="H22" t="n">
+        <v>200</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O22" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_46_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O23" t="n">
+        <v>87.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_07_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O24" t="n">
+        <v>86.97</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_31_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
         <v>2000</v>
       </c>
-      <c r="I22" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O22" t="n">
-        <v>86.45</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-07_35_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>8192</v>
-      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O25" t="n">
+        <v>86.69</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-22_52_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
